--- a/res_nodict/chimal.xlsx
+++ b/res_nodict/chimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://copregatit-my.sharepoint.com/personal/shannon_cap_transparencia_gob_gt/Documents/Documentos/GitHub/sistematizacion_test/res_nodict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A2CF937F913F6456DCB4ADD81C5C5E736F8B43D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E155829-A514-4BC9-9F84-C1A365F293BC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_A2CF937F913F6456DCB4ADD81C5C5E736F8B43D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08B59CCE-EE2C-4C23-806E-5D6A277961B2}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="855" windowWidth="19845" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,12 +354,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="5715000"/>
+    <xdr:ext cx="4371975" cy="4467225"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1" descr="Picture">
@@ -379,8 +379,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181600" y="400050"/>
-          <a:ext cx="5715000" cy="5715000"/>
+          <a:off x="5867400" y="457200"/>
+          <a:ext cx="4371975" cy="4467225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -428,6 +428,10 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,7 +721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/res_nodict/chimal.xlsx
+++ b/res_nodict/chimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://copregatit-my.sharepoint.com/personal/shannon_cap_transparencia_gob_gt/Documents/Documentos/GitHub/sistematizacion_test/res_nodict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A2CF937F913F6456DCB4ADD81C5C5E736F8B43D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08B59CCE-EE2C-4C23-806E-5D6A277961B2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_79ADF9EA084000C89BD973581F5C5E736F794DD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{284F1CC8-8404-4092-AA2F-EC7BF8C3D7A9}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="855" windowWidth="19845" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,61 +44,61 @@
     <t>Proporcionar información real para garantizar un desarrollo equitativo y resolver problemas locales.</t>
   </si>
   <si>
-    <t>['información real', 'desarrollo equitativo', 'problemas locales']</t>
+    <t>['desarrollo equitativo', 'información real', 'problemas locales']</t>
   </si>
   <si>
     <t>Facilitar la toma de decisiones comunitarias con información clara y accesible.</t>
   </si>
   <si>
-    <t>['toma', 'decisiones comunitarias']</t>
+    <t>['decisiones comunitarias', 'toma']</t>
   </si>
   <si>
     <t>Incrementar la transparencia y el control ciudadano sobre los proyectos del gobierno.</t>
   </si>
   <si>
-    <t>['transparencia', 'control', 'proyectos', 'gobierno']</t>
+    <t>['control', 'gobierno', 'proyectos', 'transparencia']</t>
   </si>
   <si>
     <t>Apoyar la planificación y monitoreo de recursos asignados para comunidades vulnerables.</t>
   </si>
   <si>
-    <t>['planificación', 'monitoreo']</t>
+    <t>['monitoreo', 'planificación']</t>
   </si>
   <si>
     <t>Generar confianza entre las comunidades mediante la información pública sobre presupuestos.</t>
   </si>
   <si>
-    <t>['confianza', 'comunidades', 'información pública', 'presupuestos']</t>
+    <t>['comunidades', 'confianza', 'información pública', 'presupuestos']</t>
   </si>
   <si>
     <t>Reducir la corrupción mediante la vigilancia de fondos asignados y proyectos ejecutados.</t>
   </si>
   <si>
-    <t>['corrupción', 'vigilancia', 'fondos asignados', 'proyectos']</t>
+    <t>['corrupción', 'fondos asignados', 'proyectos', 'vigilancia']</t>
   </si>
   <si>
     <t>Promover la igualdad mediante la distribución justa de recursos basados en datos.</t>
   </si>
   <si>
-    <t>['igualdad', 'distribución justa']</t>
+    <t>['distribución justa', 'igualdad']</t>
   </si>
   <si>
     <t>Facilitar la participación activa de la comunidad en la toma de decisiones basadas en datos.</t>
   </si>
   <si>
-    <t>['participación activa', 'comunidad', 'toma', 'decisiones', 'datos']</t>
+    <t>['comunidad', 'datos', 'decisiones', 'participación activa', 'toma']</t>
   </si>
   <si>
     <t>Mejorar la rendición de cuentas sobre el uso de recursos asignados a las comunidades.</t>
   </si>
   <si>
-    <t>['rendición', 'cuentas']</t>
+    <t>['cuentas', 'rendición']</t>
   </si>
   <si>
     <t>Fortalecer las capacidades locales mediante el acceso a datos relevantes y actualizados.</t>
   </si>
   <si>
-    <t>['capacidades locales', 'acceso']</t>
+    <t>['acceso', 'capacidades locales']</t>
   </si>
   <si>
     <t>Proporcionar un control transparente sobre los recursos asignados para proyectos locales.</t>
@@ -116,49 +116,49 @@
     <t>Incrementar la participación ciudadana en la toma de decisiones basadas en datos abiertos.</t>
   </si>
   <si>
-    <t>['participación ciudadana', 'toma', 'decisiones', 'datos abiertos']</t>
+    <t>['datos abiertos', 'decisiones', 'participación ciudadana', 'toma']</t>
   </si>
   <si>
     <t>Promover la planificación estratégica en la asignación de recursos locales.</t>
   </si>
   <si>
-    <t>['planificación estratégica', 'asignación', 'recursos locales']</t>
+    <t>['asignación', 'planificación estratégica', 'recursos locales']</t>
   </si>
   <si>
     <t>Mejorar la confianza entre ciudadanos y autoridades mediante la transparencia en los datos.</t>
   </si>
   <si>
-    <t>['confianza', 'ciudadanos', 'autoridades', 'transparencia', 'datos']</t>
+    <t>['autoridades', 'ciudadanos', 'confianza', 'datos', 'transparencia']</t>
   </si>
   <si>
     <t>Permitir a las comunidades priorizar sus necesidades con base en datos claros y accesibles.</t>
   </si>
   <si>
-    <t>['comunidades', 'necesidades', 'base']</t>
+    <t>['base', 'comunidades', 'necesidades']</t>
   </si>
   <si>
     <t>Reducir las desigualdades en la asignación de recursos públicos al visibilizar las necesidades.</t>
   </si>
   <si>
-    <t>['desigualdades', 'asignación', 'recursos públicos', 'necesidades']</t>
+    <t>['asignación', 'desigualdades', 'necesidades', 'recursos públicos']</t>
   </si>
   <si>
     <t>Facilitar el monitoreo de la implementación de proyectos mediante acceso a datos públicos.</t>
   </si>
   <si>
-    <t>['monitoreo', 'implementación', 'proyectos', 'acceso', 'datos públicos']</t>
+    <t>['acceso', 'datos públicos', 'implementación', 'monitoreo', 'proyectos']</t>
   </si>
   <si>
     <t>Mejorar la equidad en la distribución de recursos basándose en datos reales y auditables.</t>
   </si>
   <si>
-    <t>['equidad', 'distribución', 'recursos']</t>
+    <t>['distribución', 'equidad', 'recursos']</t>
   </si>
   <si>
     <t>Aumentar la eficiencia en la gestión de recursos mediante el acceso a datos abiertos confiables.</t>
   </si>
   <si>
-    <t>['eficiencia', 'gestión', 'recursos', 'acceso', 'datos abiertos']</t>
+    <t>['acceso', 'datos abiertos', 'eficiencia', 'gestión', 'recursos']</t>
   </si>
   <si>
     <t>P2</t>
@@ -173,37 +173,37 @@
     <t>Datos sobre fondos asignados, proyectos realizados y servicios básicos.</t>
   </si>
   <si>
-    <t>['Datos', 'fondos asignados', ', proyectos', 'servicios']</t>
+    <t>[', proyectos', 'datos', 'fondos asignados', 'servicios']</t>
   </si>
   <si>
     <t>Estadísticas sobre educación, salud y acceso a recursos comunitarios.</t>
   </si>
   <si>
-    <t>['Estadísticas', 'educación', ', salud', 'acceso', 'recursos comunitarios']</t>
+    <t>[', salud', 'acceso', 'educación', 'estadísticas', 'recursos comunitarios']</t>
   </si>
   <si>
     <t>Datos económicos, proyectos ejecutados y detalles de presupuestos.</t>
   </si>
   <si>
-    <t>['Datos económicos', ', proyectos', 'detalles', 'presupuestos']</t>
+    <t>[', proyectos', 'datos económicos', 'detalles', 'presupuestos']</t>
   </si>
   <si>
     <t>Estudios socioeconómicos, datos estadísticos y proyecciones de desarrollo.</t>
   </si>
   <si>
-    <t>['Estudios socioeconómicos', ', datos estadísticos', 'proyecciones', 'desarrollo']</t>
+    <t>[', datos estadísticos', 'desarrollo', 'estudios socioeconómicos', 'proyecciones']</t>
   </si>
   <si>
     <t>Información sobre proyectos educativos y detalles de los contratos públicos.</t>
   </si>
   <si>
-    <t>['Información', 'proyectos educativos', 'detalles', 'contratos públicos']</t>
+    <t>['contratos públicos', 'detalles', 'información', 'proyectos educativos']</t>
   </si>
   <si>
     <t>Censo poblacional, estadísticas de salud y proyectos ejecutados.</t>
   </si>
   <si>
-    <t>['Censo poblacional', ', estadísticas', 'salud', 'proyectos']</t>
+    <t>[', estadísticas', 'censo poblacional', 'proyectos', 'salud']</t>
   </si>
   <si>
     <t>Mapeo de recursos comunitarios y análisis de necesidades locales.</t>
@@ -215,19 +215,19 @@
     <t>Contratos públicos, presupuestos ejecutados y estadísticas de progreso.</t>
   </si>
   <si>
-    <t>['Contratos públicos', ', presupuestos', 'estadísticas', 'progreso']</t>
+    <t>[', presupuestos', 'contratos públicos', 'estadísticas', 'progreso']</t>
   </si>
   <si>
     <t>Información sobre fondos de desarrollo y ejecución de proyectos.</t>
   </si>
   <si>
-    <t>['Información', 'fondos', 'desarrollo', 'ejecución', 'proyectos']</t>
+    <t>['desarrollo', 'ejecución', 'fondos', 'información', 'proyectos']</t>
   </si>
   <si>
     <t>Listados de proyectos, estadísticas de educación y salud, y datos poblacionales.</t>
   </si>
   <si>
-    <t>['Listados', 'proyectos', ', estadísticas', 'educación', 'salud']</t>
+    <t>[', estadísticas', 'educación', 'listados', 'proyectos', 'salud']</t>
   </si>
   <si>
     <t>Censos poblacionales, estadísticas de pobreza y estudios de impacto social.</t>
@@ -236,19 +236,19 @@
     <t>Datos sobre obras públicas, presupuestos locales y estadísticas de seguridad.</t>
   </si>
   <si>
-    <t>['Datos', 'obras públicas', 'seguridad']</t>
+    <t>['datos', 'obras públicas', 'seguridad']</t>
   </si>
   <si>
     <t>Proyecciones económicas, detalles de proyectos en ejecución y mapas de recursos comunitarios.</t>
   </si>
   <si>
-    <t>['Proyecciones económicas', ', detalles', 'proyectos', 'ejecución', 'mapas', 'recursos comunitarios']</t>
+    <t>[', detalles', 'ejecución', 'mapas', 'proyecciones económicas', 'proyectos', 'recursos comunitarios']</t>
   </si>
   <si>
     <t>Información sobre educación, salud y estadísticas laborales.</t>
   </si>
   <si>
-    <t>['Información', 'educación', ', salud', 'estadísticas']</t>
+    <t>[', salud', 'educación', 'estadísticas', 'información']</t>
   </si>
   <si>
     <t>Datos poblacionales, presupuestos de proyectos y registros de acceso a servicios básicos.</t>
@@ -257,13 +257,13 @@
     <t>Censos demográficos, estudios de salud pública y estadísticas de empleo.</t>
   </si>
   <si>
-    <t>['Censos demográficos', ', estudios', 'salud pública', 'estadísticas', 'empleo']</t>
+    <t>[', estudios', 'censos demográficos', 'empleo', 'estadísticas', 'salud pública']</t>
   </si>
   <si>
     <t>Estadísticas de proyectos ejecutados, datos poblacionales y recursos financieros asignados.</t>
   </si>
   <si>
-    <t>['Estadísticas', 'proyectos ejecutados', ', datos', 'recursos']</t>
+    <t>[', datos', 'estadísticas', 'proyectos ejecutados', 'recursos']</t>
   </si>
   <si>
     <t>Datos educativos, sanitarios y mapas de pobreza.</t>
@@ -272,7 +272,7 @@
     <t>Información sobre presupuestos, proyectos educativos y estadísticas de salud pública.</t>
   </si>
   <si>
-    <t>['Información', 'presupuestos', ', proyectos', 'estadísticas', 'salud pública']</t>
+    <t>[', proyectos', 'estadísticas', 'información', 'presupuestos', 'salud pública']</t>
   </si>
 </sst>
 </file>
@@ -355,11 +355,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4371975" cy="4467225"/>
+    <xdr:ext cx="5715000" cy="5715000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1" descr="Picture">
@@ -379,8 +379,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5867400" y="457200"/>
-          <a:ext cx="4371975" cy="4467225"/>
+          <a:off x="5705475" y="371475"/>
+          <a:ext cx="5715000" cy="5715000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -428,10 +428,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,7 +718,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/res_nodict/chimal.xlsx
+++ b/res_nodict/chimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://copregatit-my.sharepoint.com/personal/shannon_cap_transparencia_gob_gt/Documents/Documentos/GitHub/sistematizacion_test/res_nodict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_79ADF9EA084000C89BD973581F5C5E736F794DD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{284F1CC8-8404-4092-AA2F-EC7BF8C3D7A9}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_79ADF9EA084000C89BD973581F5C5E736F794DD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6DD4B1A-8E54-417E-B7D3-25D734ED567B}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="855" windowWidth="19845" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="19845" windowHeight="14745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="5715000"/>
+    <xdr:ext cx="4419600" cy="4476750"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1" descr="Picture">
@@ -380,7 +380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5705475" y="371475"/>
-          <a:ext cx="5715000" cy="5715000"/>
+          <a:ext cx="4419600" cy="4476750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -428,6 +428,10 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,11 +721,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="90.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -975,9 +983,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="87.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
